--- a/Energy Consumption13.xlsx
+++ b/Energy Consumption13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6253458257977367</v>
+        <v>0.3057755019566411</v>
       </c>
       <c r="C2" t="n">
-        <v>1.160017630205286</v>
+        <v>0.9826765718905971</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.67596659629596</v>
+        <v>3.154138662649057</v>
       </c>
       <c r="C3" t="n">
-        <v>2.704304404226019</v>
+        <v>2.116306662292992</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.903799904627226</v>
+        <v>6.309303283115023</v>
       </c>
       <c r="C4" t="n">
-        <v>3.884062586195812</v>
+        <v>3.212001523098469</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.157581134944239</v>
+        <v>6.429515363513585</v>
       </c>
       <c r="C5" t="n">
-        <v>5.200897291319545</v>
+        <v>4.135790728667687</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.162584820121586</v>
+        <v>7.639755830693706</v>
       </c>
       <c r="C6" t="n">
-        <v>6.651960584075003</v>
+        <v>5.023303323608117</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.42550317253723</v>
+        <v>9.813262399729423</v>
       </c>
       <c r="C7" t="n">
-        <v>7.902133544020822</v>
+        <v>6.147740111681724</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.09865595104887</v>
+        <v>10.07208983726656</v>
       </c>
       <c r="C8" t="n">
-        <v>9.219991019525478</v>
+        <v>7.223257217080174</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.12761095664657</v>
+        <v>12.81391831371356</v>
       </c>
       <c r="C9" t="n">
-        <v>10.51233705363324</v>
+        <v>8.614052548334671</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.68922985120303</v>
+        <v>13.54667688665792</v>
       </c>
       <c r="C10" t="n">
-        <v>11.76285630373962</v>
+        <v>9.641044288093667</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.34274383016696</v>
+        <v>18.70980162941933</v>
       </c>
       <c r="C11" t="n">
-        <v>12.92100663924505</v>
+        <v>10.75538690925083</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.25863268088324</v>
+        <v>18.84208360291822</v>
       </c>
       <c r="C12" t="n">
-        <v>14.12010734397036</v>
+        <v>11.74825053739646</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.96738286863889</v>
+        <v>20.29284793574165</v>
       </c>
       <c r="C13" t="n">
-        <v>15.30251686799714</v>
+        <v>12.88617047708607</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.66904399083911</v>
+        <v>21.99655093544908</v>
       </c>
       <c r="C14" t="n">
-        <v>16.67910525720111</v>
+        <v>14.0047038236492</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34.39162925625234</v>
+        <v>23.47394361526146</v>
       </c>
       <c r="C15" t="n">
-        <v>18.10031515843719</v>
+        <v>15.12988592880661</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>34.66284679451352</v>
+        <v>28.61399442879771</v>
       </c>
       <c r="C16" t="n">
-        <v>19.71981268711089</v>
+        <v>16.44029817557212</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>42.83592067289656</v>
+        <v>30.34999258236576</v>
       </c>
       <c r="C17" t="n">
-        <v>20.94128613413679</v>
+        <v>17.49082622723459</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.23232732527755</v>
+        <v>32.6333819200124</v>
       </c>
       <c r="C18" t="n">
-        <v>22.34256118796729</v>
+        <v>18.49820391976089</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.47448302102018</v>
+        <v>32.68631422510158</v>
       </c>
       <c r="C19" t="n">
-        <v>23.47389612916365</v>
+        <v>19.48321643640386</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.9396319711683</v>
+        <v>40.20928467167986</v>
       </c>
       <c r="C20" t="n">
-        <v>24.68791438422879</v>
+        <v>20.55627083938649</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46.86618728404422</v>
+        <v>40.27763790002835</v>
       </c>
       <c r="C21" t="n">
-        <v>25.93348896260197</v>
+        <v>21.78894017037864</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>51.90432219508264</v>
+        <v>40.49940116259118</v>
       </c>
       <c r="C22" t="n">
-        <v>27.24528373787285</v>
+        <v>23.28908568810289</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>53.19990302477134</v>
+        <v>40.75847444187139</v>
       </c>
       <c r="C23" t="n">
-        <v>28.51328865404255</v>
+        <v>24.34671023788813</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>56.36080863843073</v>
+        <v>43.94925535551054</v>
       </c>
       <c r="C24" t="n">
-        <v>29.72059250258524</v>
+        <v>25.6788196804849</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>56.48920788750601</v>
+        <v>44.45507674979105</v>
       </c>
       <c r="C25" t="n">
-        <v>31.07023690851712</v>
+        <v>26.96685689275536</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>56.63396476762455</v>
+        <v>46.9090320987316</v>
       </c>
       <c r="C26" t="n">
-        <v>32.36180800367072</v>
+        <v>27.94268979019827</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>57.10151885902473</v>
+        <v>47.55470329123317</v>
       </c>
       <c r="C27" t="n">
-        <v>33.82777264528895</v>
+        <v>29.05747652407612</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>61.71104695755569</v>
+        <v>47.99606648034335</v>
       </c>
       <c r="C28" t="n">
-        <v>35.50799085127237</v>
+        <v>30.04198406806526</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>61.82310770849933</v>
+        <v>48.07506795306357</v>
       </c>
       <c r="C29" t="n">
-        <v>37.02468697311176</v>
+        <v>31.20628923462507</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>62.14224378240896</v>
+        <v>51.38584688565206</v>
       </c>
       <c r="C30" t="n">
-        <v>38.37786427739647</v>
+        <v>32.33574363433733</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66.58781031214153</v>
+        <v>52.19765464963719</v>
       </c>
       <c r="C31" t="n">
-        <v>39.5916336673881</v>
+        <v>33.46645357182354</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.98516679269034</v>
+        <v>54.33709891283433</v>
       </c>
       <c r="C32" t="n">
-        <v>40.96251765798647</v>
+        <v>34.47790722735392</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>67.63792980598352</v>
+        <v>55.05536286757207</v>
       </c>
       <c r="C33" t="n">
-        <v>42.59549469826624</v>
+        <v>35.6349914708116</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>70.47472762556897</v>
+        <v>55.69204492397582</v>
       </c>
       <c r="C34" t="n">
-        <v>43.82934459824322</v>
+        <v>36.79903387750633</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>76.48809504503119</v>
+        <v>60.55470327552327</v>
       </c>
       <c r="C35" t="n">
-        <v>44.91453345562529</v>
+        <v>37.93367368211315</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>78.95592906590348</v>
+        <v>62.31901260921842</v>
       </c>
       <c r="C36" t="n">
-        <v>46.37431122608807</v>
+        <v>38.91201586919249</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>79.09516612201833</v>
+        <v>62.44778901826707</v>
       </c>
       <c r="C37" t="n">
-        <v>47.61510910605864</v>
+        <v>40.09100077052401</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>80.19194135208544</v>
+        <v>62.80807289820739</v>
       </c>
       <c r="C38" t="n">
-        <v>48.94388948454952</v>
+        <v>41.18956802005567</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83.58819025505096</v>
+        <v>76.53776748414062</v>
       </c>
       <c r="C39" t="n">
-        <v>50.47190094020972</v>
+        <v>42.24328014358694</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>83.79166969439403</v>
+        <v>76.64724414875722</v>
       </c>
       <c r="C40" t="n">
-        <v>51.91502883797012</v>
+        <v>43.30882812755814</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.27024736079316</v>
+        <v>78.7631379500087</v>
       </c>
       <c r="C41" t="n">
-        <v>53.24185584103221</v>
+        <v>44.36228994056093</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.29974436650888</v>
+        <v>80.27799027442124</v>
       </c>
       <c r="C42" t="n">
-        <v>54.48629130518244</v>
+        <v>45.33509096520394</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.38697168410492</v>
+        <v>83.72280812048349</v>
       </c>
       <c r="C43" t="n">
-        <v>55.95318191948139</v>
+        <v>46.56263662006835</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>94.33024613242409</v>
+        <v>83.95777005763956</v>
       </c>
       <c r="C44" t="n">
-        <v>57.25091944944798</v>
+        <v>47.56359617577904</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>96.51207868561002</v>
+        <v>86.98944131623007</v>
       </c>
       <c r="C45" t="n">
-        <v>58.48626641867284</v>
+        <v>49.14259820764222</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,54 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>97.52226879140093</v>
+        <v>92.14298144941921</v>
       </c>
       <c r="C46" t="n">
-        <v>60.12736679923178</v>
+        <v>50.37186127014811</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>92.21644588337426</v>
+      </c>
+      <c r="C47" t="n">
+        <v>51.53160675000726</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>92.78042424572141</v>
+      </c>
+      <c r="C48" t="n">
+        <v>52.72856272289629</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>94.21593395708028</v>
+      </c>
+      <c r="C49" t="n">
+        <v>53.82659609278578</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>94.52484625553295</v>
+      </c>
+      <c r="C50" t="n">
+        <v>54.97474088191304</v>
       </c>
     </row>
   </sheetData>
